--- a/po_analysis_by_asin/B0BSR8959Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8959Z_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,113 +452,249 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45390</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45404</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45411</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45418</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45425</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45432</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45439</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45474</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45481</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45488</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45502</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45509</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45537</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B32" t="n">
         <v>112</v>
       </c>
     </row>
@@ -573,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,41 +731,97 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45413</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>170</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>184</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B13" t="n">
         <v>112</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BSR8959Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8959Z_po_data.xlsx
@@ -543,7 +543,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -766,7 +766,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">

--- a/po_analysis_by_asin/B0BSR8959Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8959Z_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -725,7 +726,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -823,6 +824,593 @@
       </c>
       <c r="B13" t="n">
         <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-30.14174783691047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.49008578149358</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-30.15114135647556</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.23571565869473</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-29.64767195016909</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.77194602210746</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-29.27039547496476</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.71385591691231</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-25.29331266598268</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45.26168244002804</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-25.6137617201564</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.6721514526367</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-26.37891129306032</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.86766718887141</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-25.1802436057897</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47.51268357002152</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-26.07879685596586</v>
+      </c>
+      <c r="D10" t="n">
+        <v>44.91237685261807</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-24.31688992415014</v>
+      </c>
+      <c r="D11" t="n">
+        <v>49.03298799428363</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-23.51823798933276</v>
+      </c>
+      <c r="D12" t="n">
+        <v>49.88217786435019</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-20.62004365820463</v>
+      </c>
+      <c r="D13" t="n">
+        <v>49.84753721973271</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-20.46582299364672</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50.94495173332315</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-20.00922264123448</v>
+      </c>
+      <c r="D15" t="n">
+        <v>53.71330279882361</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-16.52121239304573</v>
+      </c>
+      <c r="D16" t="n">
+        <v>53.35880680795664</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-17.42096575427762</v>
+      </c>
+      <c r="D17" t="n">
+        <v>53.33142158820787</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.947147556420024</v>
+      </c>
+      <c r="D18" t="n">
+        <v>61.19927244246673</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>37</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.785274799117118</v>
+      </c>
+      <c r="D19" t="n">
+        <v>73.53673762917946</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.749665781297343</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71.95250398005794</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.269394181356555</v>
+      </c>
+      <c r="D21" t="n">
+        <v>73.61735354564229</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>40</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.216926347565171</v>
+      </c>
+      <c r="D22" t="n">
+        <v>74.21100818927178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>40</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.17550970416975</v>
+      </c>
+      <c r="D23" t="n">
+        <v>76.55500892672045</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>41</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.449114476607325</v>
+      </c>
+      <c r="D24" t="n">
+        <v>76.15094560552511</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>41</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.478222087653547</v>
+      </c>
+      <c r="D25" t="n">
+        <v>73.64096076918105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>42</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.024958098288044</v>
+      </c>
+      <c r="D26" t="n">
+        <v>77.87006727251836</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>45</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.370017440537216</v>
+      </c>
+      <c r="D27" t="n">
+        <v>80.40524873535826</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>45</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.438988761532592</v>
+      </c>
+      <c r="D28" t="n">
+        <v>80.95187370487066</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>46</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.211500289929095</v>
+      </c>
+      <c r="D29" t="n">
+        <v>79.48014067911861</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>47</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10.32806007639434</v>
+      </c>
+      <c r="D30" t="n">
+        <v>81.79874419784041</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>48</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12.51898749926939</v>
+      </c>
+      <c r="D31" t="n">
+        <v>84.57657478943156</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15.95572653619961</v>
+      </c>
+      <c r="D32" t="n">
+        <v>85.79351076418571</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>50</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.22928568448568</v>
+      </c>
+      <c r="D33" t="n">
+        <v>85.05811037087186</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>51</v>
+      </c>
+      <c r="C34" t="n">
+        <v>17.72213979009009</v>
+      </c>
+      <c r="D34" t="n">
+        <v>85.31792648631719</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>51</v>
+      </c>
+      <c r="C35" t="n">
+        <v>15.07657425636121</v>
+      </c>
+      <c r="D35" t="n">
+        <v>89.03686803134033</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>52</v>
+      </c>
+      <c r="C36" t="n">
+        <v>17.9698755586979</v>
+      </c>
+      <c r="D36" t="n">
+        <v>89.10540379455993</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>53</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15.31284531765765</v>
+      </c>
+      <c r="D37" t="n">
+        <v>87.41987604099133</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>53</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19.35377040612568</v>
+      </c>
+      <c r="D38" t="n">
+        <v>86.88208352573973</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>54</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16.31589188584618</v>
+      </c>
+      <c r="D39" t="n">
+        <v>87.16925932189604</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>54</v>
+      </c>
+      <c r="C40" t="n">
+        <v>16.65714945186961</v>
+      </c>
+      <c r="D40" t="n">
+        <v>89.71322982464913</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BSR8959Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8959Z_po_data.xlsx
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,16 +856,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -874,12 +864,6 @@
       <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>-30.14174783691047</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.49008578149358</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -888,12 +872,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>-30.15114135647556</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.23571565869473</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -902,12 +880,6 @@
       <c r="B4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>-29.64767195016909</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46.77194602210746</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -916,12 +888,6 @@
       <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
-        <v>-29.27039547496476</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44.71385591691231</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -930,12 +896,6 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
-        <v>-25.29331266598268</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45.26168244002804</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -944,12 +904,6 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
-        <v>-25.6137617201564</v>
-      </c>
-      <c r="D7" t="n">
-        <v>45.6721514526367</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -958,12 +912,6 @@
       <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="n">
-        <v>-26.37891129306032</v>
-      </c>
-      <c r="D8" t="n">
-        <v>47.86766718887141</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -972,12 +920,6 @@
       <c r="B9" t="n">
         <v>11</v>
       </c>
-      <c r="C9" t="n">
-        <v>-25.1802436057897</v>
-      </c>
-      <c r="D9" t="n">
-        <v>47.51268357002152</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -986,12 +928,6 @@
       <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
-        <v>-26.07879685596586</v>
-      </c>
-      <c r="D10" t="n">
-        <v>44.91237685261807</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1000,12 +936,6 @@
       <c r="B11" t="n">
         <v>13</v>
       </c>
-      <c r="C11" t="n">
-        <v>-24.31688992415014</v>
-      </c>
-      <c r="D11" t="n">
-        <v>49.03298799428363</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1014,12 +944,6 @@
       <c r="B12" t="n">
         <v>14</v>
       </c>
-      <c r="C12" t="n">
-        <v>-23.51823798933276</v>
-      </c>
-      <c r="D12" t="n">
-        <v>49.88217786435019</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1028,12 +952,6 @@
       <c r="B13" t="n">
         <v>15</v>
       </c>
-      <c r="C13" t="n">
-        <v>-20.62004365820463</v>
-      </c>
-      <c r="D13" t="n">
-        <v>49.84753721973271</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1042,12 +960,6 @@
       <c r="B14" t="n">
         <v>16</v>
       </c>
-      <c r="C14" t="n">
-        <v>-20.46582299364672</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50.94495173332315</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1056,12 +968,6 @@
       <c r="B15" t="n">
         <v>16</v>
       </c>
-      <c r="C15" t="n">
-        <v>-20.00922264123448</v>
-      </c>
-      <c r="D15" t="n">
-        <v>53.71330279882361</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1070,12 +976,6 @@
       <c r="B16" t="n">
         <v>18</v>
       </c>
-      <c r="C16" t="n">
-        <v>-16.52121239304573</v>
-      </c>
-      <c r="D16" t="n">
-        <v>53.35880680795664</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1084,12 +984,6 @@
       <c r="B17" t="n">
         <v>18</v>
       </c>
-      <c r="C17" t="n">
-        <v>-17.42096575427762</v>
-      </c>
-      <c r="D17" t="n">
-        <v>53.33142158820787</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1098,12 +992,6 @@
       <c r="B18" t="n">
         <v>24</v>
       </c>
-      <c r="C18" t="n">
-        <v>-9.947147556420024</v>
-      </c>
-      <c r="D18" t="n">
-        <v>61.19927244246673</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1112,12 +1000,6 @@
       <c r="B19" t="n">
         <v>37</v>
       </c>
-      <c r="C19" t="n">
-        <v>1.785274799117118</v>
-      </c>
-      <c r="D19" t="n">
-        <v>73.53673762917946</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1126,12 +1008,6 @@
       <c r="B20" t="n">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
-        <v>2.749665781297343</v>
-      </c>
-      <c r="D20" t="n">
-        <v>71.95250398005794</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1140,12 +1016,6 @@
       <c r="B21" t="n">
         <v>39</v>
       </c>
-      <c r="C21" t="n">
-        <v>3.269394181356555</v>
-      </c>
-      <c r="D21" t="n">
-        <v>73.61735354564229</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1154,12 +1024,6 @@
       <c r="B22" t="n">
         <v>40</v>
       </c>
-      <c r="C22" t="n">
-        <v>6.216926347565171</v>
-      </c>
-      <c r="D22" t="n">
-        <v>74.21100818927178</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1168,12 +1032,6 @@
       <c r="B23" t="n">
         <v>40</v>
       </c>
-      <c r="C23" t="n">
-        <v>4.17550970416975</v>
-      </c>
-      <c r="D23" t="n">
-        <v>76.55500892672045</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1182,12 +1040,6 @@
       <c r="B24" t="n">
         <v>41</v>
       </c>
-      <c r="C24" t="n">
-        <v>5.449114476607325</v>
-      </c>
-      <c r="D24" t="n">
-        <v>76.15094560552511</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1196,12 +1048,6 @@
       <c r="B25" t="n">
         <v>41</v>
       </c>
-      <c r="C25" t="n">
-        <v>3.478222087653547</v>
-      </c>
-      <c r="D25" t="n">
-        <v>73.64096076918105</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1210,12 +1056,6 @@
       <c r="B26" t="n">
         <v>42</v>
       </c>
-      <c r="C26" t="n">
-        <v>7.024958098288044</v>
-      </c>
-      <c r="D26" t="n">
-        <v>77.87006727251836</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1224,12 +1064,6 @@
       <c r="B27" t="n">
         <v>45</v>
       </c>
-      <c r="C27" t="n">
-        <v>9.370017440537216</v>
-      </c>
-      <c r="D27" t="n">
-        <v>80.40524873535826</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1238,12 +1072,6 @@
       <c r="B28" t="n">
         <v>45</v>
       </c>
-      <c r="C28" t="n">
-        <v>8.438988761532592</v>
-      </c>
-      <c r="D28" t="n">
-        <v>80.95187370487066</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1252,12 +1080,6 @@
       <c r="B29" t="n">
         <v>46</v>
       </c>
-      <c r="C29" t="n">
-        <v>9.211500289929095</v>
-      </c>
-      <c r="D29" t="n">
-        <v>79.48014067911861</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1266,12 +1088,6 @@
       <c r="B30" t="n">
         <v>47</v>
       </c>
-      <c r="C30" t="n">
-        <v>10.32806007639434</v>
-      </c>
-      <c r="D30" t="n">
-        <v>81.79874419784041</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1280,12 +1096,6 @@
       <c r="B31" t="n">
         <v>48</v>
       </c>
-      <c r="C31" t="n">
-        <v>12.51898749926939</v>
-      </c>
-      <c r="D31" t="n">
-        <v>84.57657478943156</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1294,12 +1104,6 @@
       <c r="B32" t="n">
         <v>50</v>
       </c>
-      <c r="C32" t="n">
-        <v>15.95572653619961</v>
-      </c>
-      <c r="D32" t="n">
-        <v>85.79351076418571</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1308,12 +1112,6 @@
       <c r="B33" t="n">
         <v>50</v>
       </c>
-      <c r="C33" t="n">
-        <v>14.22928568448568</v>
-      </c>
-      <c r="D33" t="n">
-        <v>85.05811037087186</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1322,12 +1120,6 @@
       <c r="B34" t="n">
         <v>51</v>
       </c>
-      <c r="C34" t="n">
-        <v>17.72213979009009</v>
-      </c>
-      <c r="D34" t="n">
-        <v>85.31792648631719</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1336,12 +1128,6 @@
       <c r="B35" t="n">
         <v>51</v>
       </c>
-      <c r="C35" t="n">
-        <v>15.07657425636121</v>
-      </c>
-      <c r="D35" t="n">
-        <v>89.03686803134033</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1350,12 +1136,6 @@
       <c r="B36" t="n">
         <v>52</v>
       </c>
-      <c r="C36" t="n">
-        <v>17.9698755586979</v>
-      </c>
-      <c r="D36" t="n">
-        <v>89.10540379455993</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1364,12 +1144,6 @@
       <c r="B37" t="n">
         <v>53</v>
       </c>
-      <c r="C37" t="n">
-        <v>15.31284531765765</v>
-      </c>
-      <c r="D37" t="n">
-        <v>87.41987604099133</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1378,12 +1152,6 @@
       <c r="B38" t="n">
         <v>53</v>
       </c>
-      <c r="C38" t="n">
-        <v>19.35377040612568</v>
-      </c>
-      <c r="D38" t="n">
-        <v>86.88208352573973</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1392,12 +1160,6 @@
       <c r="B39" t="n">
         <v>54</v>
       </c>
-      <c r="C39" t="n">
-        <v>16.31589188584618</v>
-      </c>
-      <c r="D39" t="n">
-        <v>87.16925932189604</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1405,12 +1167,6 @@
       </c>
       <c r="B40" t="n">
         <v>54</v>
-      </c>
-      <c r="C40" t="n">
-        <v>16.65714945186961</v>
-      </c>
-      <c r="D40" t="n">
-        <v>89.71322982464913</v>
       </c>
     </row>
   </sheetData>
